--- a/2024-ph101-SPRING.xlsx
+++ b/2024-ph101-SPRING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehreming\Dropbox\101-2024-spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15980BBF-3DFF-4324-AD34-79B1B99DDB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC756862-685D-4A46-B8DC-ED1C040543CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59250" yWindow="825" windowWidth="25410" windowHeight="15255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,103 +445,88 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,14 +534,8 @@
     <cellStyle name="Excel Built-in Explanatory Text 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -583,16 +562,12 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1002,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="16.5" x14ac:dyDescent="0.75"/>
@@ -1106,21 +1081,21 @@
         <f>DATE(B3,MONTH(1&amp;B4),B5)</f>
         <v>45299</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="19">
         <f>DATE(B3,B4,B5)</f>
         <v>45299</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
       <c r="AME8"/>
@@ -1131,12 +1106,12 @@
     </row>
     <row r="9" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="36"/>
       <c r="AME9"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
@@ -1145,17 +1120,17 @@
     </row>
     <row r="10" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A10" s="16"/>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <f>IF(B9="",B8+IF(OR(WEEKDAY(B8)=2,WEEKDAY(B8)=4),2,3),"")</f>
         <v>45301</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21">
+      <c r="C10" s="20"/>
+      <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="43"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="36"/>
       <c r="AME10"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
@@ -1164,12 +1139,12 @@
     </row>
     <row r="11" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A11" s="16"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="36"/>
       <c r="AME11"/>
       <c r="AMF11"/>
       <c r="AMG11"/>
@@ -1178,19 +1153,19 @@
     </row>
     <row r="12" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="16"/>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <f>IF(B11="",B10+IF(OR(WEEKDAY(B10)=2,WEEKDAY(B10)=4),2,3),"")</f>
         <v>45303</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21">
+      <c r="C12" s="20"/>
+      <c r="D12" s="24">
         <v>3</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="36"/>
       <c r="AME12"/>
       <c r="AMF12"/>
       <c r="AMG12"/>
@@ -1199,12 +1174,12 @@
     </row>
     <row r="13" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="36"/>
       <c r="AME13"/>
       <c r="AMF13"/>
       <c r="AMG13"/>
@@ -1213,23 +1188,23 @@
     </row>
     <row r="14" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14"/>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <f>IF(B13="",B12+IF(OR(WEEKDAY(B12)=2,WEEKDAY(B12)=4),2,3),"")</f>
         <v>45306</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>2</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="21">
         <v>4</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="43" t="s">
         <v>46</v>
       </c>
       <c r="AME14"/>
@@ -1240,12 +1215,12 @@
     </row>
     <row r="15" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="48"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="44"/>
       <c r="AME15"/>
       <c r="AMF15"/>
       <c r="AMG15"/>
@@ -1253,17 +1228,17 @@
       <c r="AMI15"/>
     </row>
     <row r="16" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <f>IF(B15="",B14+IF(OR(WEEKDAY(B14)=2,WEEKDAY(B14)=4),2,3),"")</f>
         <v>45308</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21">
+      <c r="C16" s="20"/>
+      <c r="D16" s="24">
         <v>5</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="44"/>
       <c r="AME16"/>
       <c r="AMF16"/>
       <c r="AMG16"/>
@@ -1271,12 +1246,12 @@
       <c r="AMI16"/>
     </row>
     <row r="17" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B17" s="20"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="44"/>
       <c r="AME17"/>
       <c r="AMF17"/>
       <c r="AMG17"/>
@@ -1284,19 +1259,19 @@
       <c r="AMI17"/>
     </row>
     <row r="18" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <f>IF(B17="",B16+IF(OR(WEEKDAY(B16)=2,WEEKDAY(B16)=4),2,3),"")</f>
         <v>45310</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21">
+      <c r="C18" s="20"/>
+      <c r="D18" s="24">
         <v>6</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="44"/>
       <c r="AME18"/>
       <c r="AMF18"/>
       <c r="AMG18"/>
@@ -1304,12 +1279,12 @@
       <c r="AMI18"/>
     </row>
     <row r="19" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B19" s="20"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="49"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="45"/>
       <c r="AME19"/>
       <c r="AMF19"/>
       <c r="AMG19"/>
@@ -1318,21 +1293,21 @@
     </row>
     <row r="20" spans="1:1023" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="14"/>
-      <c r="B20" s="23">
+      <c r="B20" s="19">
         <f>IF(B19="",B18+IF(OR(WEEKDAY(B18)=2,WEEKDAY(B18)=4),2,3),"")</f>
         <v>45313</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="21">
         <v>7</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="36" t="s">
         <v>36</v>
       </c>
       <c r="AME20"/>
@@ -1343,12 +1318,12 @@
     </row>
     <row r="21" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A21" s="14"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="43"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="36"/>
       <c r="AME21"/>
       <c r="AMF21"/>
       <c r="AMG21"/>
@@ -1357,17 +1332,17 @@
     </row>
     <row r="22" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A22" s="14"/>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <f>IF(B21="",B20+IF(OR(WEEKDAY(B20)=2,WEEKDAY(B20)=4),2,3),"")</f>
         <v>45315</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21">
+      <c r="C22" s="20"/>
+      <c r="D22" s="24">
         <v>8</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="36"/>
       <c r="AME22"/>
       <c r="AMF22"/>
       <c r="AMG22"/>
@@ -1376,12 +1351,12 @@
     </row>
     <row r="23" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A23" s="14"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="43"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="36"/>
       <c r="AME23"/>
       <c r="AMF23"/>
       <c r="AMG23"/>
@@ -1390,19 +1365,19 @@
     </row>
     <row r="24" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="14"/>
-      <c r="B24" s="20">
+      <c r="B24" s="23">
         <f>IF(B23="",B22+IF(OR(WEEKDAY(B22)=2,WEEKDAY(B22)=4),2,3),"")</f>
         <v>45317</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21">
+      <c r="C24" s="20"/>
+      <c r="D24" s="24">
         <v>9</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="43"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="36"/>
       <c r="AME24"/>
       <c r="AMF24"/>
       <c r="AMG24"/>
@@ -1411,12 +1386,12 @@
     </row>
     <row r="25" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A25" s="14"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="36"/>
       <c r="AME25"/>
       <c r="AMF25"/>
       <c r="AMG25"/>
@@ -1425,21 +1400,21 @@
     </row>
     <row r="26" spans="1:1023" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26"/>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <f>IF(B25="",B24+IF(OR(WEEKDAY(B24)=2,WEEKDAY(B24)=4),2,3),"")</f>
         <v>45320</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>4</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="21">
         <v>10</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="36" t="s">
         <v>37</v>
       </c>
       <c r="AME26"/>
@@ -1450,12 +1425,12 @@
     </row>
     <row r="27" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A27" s="14"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="46"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="37"/>
       <c r="AME27"/>
       <c r="AMF27"/>
       <c r="AMG27"/>
@@ -1463,21 +1438,17 @@
       <c r="AMI27"/>
     </row>
     <row r="28" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="A28" s="17">
-        <f>DATE(B3,MONTH(1&amp;B4)+1,B5)</f>
-        <v>45330</v>
-      </c>
-      <c r="B28" s="20">
+      <c r="B28" s="23">
         <f>IF(B27="",B26+IF(OR(WEEKDAY(B26)=2,WEEKDAY(B26)=4),2,3),"")</f>
         <v>45322</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21">
+      <c r="C28" s="20"/>
+      <c r="D28" s="24">
         <v>11</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="37"/>
       <c r="AME28"/>
       <c r="AMF28"/>
       <c r="AMG28"/>
@@ -1485,12 +1456,12 @@
       <c r="AMI28"/>
     </row>
     <row r="29" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B29" s="20"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="46"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="37"/>
       <c r="AME29"/>
       <c r="AMF29"/>
       <c r="AMG29"/>
@@ -1498,19 +1469,23 @@
       <c r="AMI29"/>
     </row>
     <row r="30" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B30" s="20">
+      <c r="A30" s="17">
+        <f>DATE(B3,MONTH(1&amp;B4)+1,B5)</f>
+        <v>45330</v>
+      </c>
+      <c r="B30" s="23">
         <f>IF(B29="",B28+IF(OR(WEEKDAY(B28)=2,WEEKDAY(B28)=4),2,3),"")</f>
         <v>45324</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21">
+      <c r="C30" s="20"/>
+      <c r="D30" s="24">
         <v>12</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="46"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="37"/>
       <c r="AME30"/>
       <c r="AMF30"/>
       <c r="AMG30"/>
@@ -1518,12 +1493,12 @@
       <c r="AMI30"/>
     </row>
     <row r="31" spans="1:1023" ht="17.2" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B31" s="20"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="45"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="38"/>
       <c r="AME31"/>
       <c r="AMF31"/>
       <c r="AMG31"/>
@@ -1532,21 +1507,21 @@
     </row>
     <row r="32" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A32" s="14"/>
-      <c r="B32" s="23">
+      <c r="B32" s="19">
         <f>IF(B31="",B30+IF(OR(WEEKDAY(B30)=2,WEEKDAY(B30)=4),2,3),"")</f>
         <v>45327</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="20">
         <v>5</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="21">
         <v>13</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="36" t="s">
         <v>39</v>
       </c>
       <c r="AME32"/>
@@ -1557,12 +1532,12 @@
     </row>
     <row r="33" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A33" s="14"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="36"/>
       <c r="AME33"/>
       <c r="AMF33"/>
       <c r="AMG33"/>
@@ -1571,17 +1546,17 @@
     </row>
     <row r="34" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A34" s="14"/>
-      <c r="B34" s="20">
+      <c r="B34" s="23">
         <f>IF(B33="",B32+IF(OR(WEEKDAY(B32)=2,WEEKDAY(B32)=4),2,3),"")</f>
         <v>45329</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21">
+      <c r="C34" s="20"/>
+      <c r="D34" s="24">
         <v>14</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="43"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="36"/>
       <c r="AME34"/>
       <c r="AMF34"/>
       <c r="AMG34"/>
@@ -1590,12 +1565,12 @@
     </row>
     <row r="35" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A35" s="14"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="36"/>
       <c r="AME35"/>
       <c r="AMF35"/>
       <c r="AMG35"/>
@@ -1604,19 +1579,19 @@
     </row>
     <row r="36" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A36" s="14"/>
-      <c r="B36" s="20">
+      <c r="B36" s="23">
         <f>IF(B35="",B34+IF(OR(WEEKDAY(B34)=2,WEEKDAY(B34)=4),2,3),"")</f>
         <v>45331</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21">
+      <c r="C36" s="20"/>
+      <c r="D36" s="24">
         <v>15</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="36"/>
       <c r="AME36"/>
       <c r="AMF36"/>
       <c r="AMG36"/>
@@ -1625,12 +1600,12 @@
     </row>
     <row r="37" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A37" s="14"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="AME37"/>
       <c r="AMF37"/>
       <c r="AMG37"/>
@@ -1639,21 +1614,21 @@
     </row>
     <row r="38" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A38"/>
-      <c r="B38" s="23">
+      <c r="B38" s="19">
         <f>IF(B37="",B36+IF(OR(WEEKDAY(B36)=2,WEEKDAY(B36)=4),2,3),"")</f>
         <v>45334</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="20">
         <v>6</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="21">
         <v>16</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="36" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AME38"/>
@@ -1664,12 +1639,12 @@
     </row>
     <row r="39" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A39" s="14"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="50"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="44"/>
       <c r="AME39"/>
       <c r="AMF39"/>
       <c r="AMG39"/>
@@ -1678,17 +1653,17 @@
     </row>
     <row r="40" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A40" s="14"/>
-      <c r="B40" s="20">
+      <c r="B40" s="23">
         <f>IF(B39="",B38+IF(OR(WEEKDAY(B38)=2,WEEKDAY(B38)=4),2,3),"")</f>
         <v>45336</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21">
+      <c r="C40" s="20"/>
+      <c r="D40" s="24">
         <v>17</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="50"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="44"/>
       <c r="AME40"/>
       <c r="AMF40"/>
       <c r="AMG40"/>
@@ -1697,12 +1672,12 @@
     </row>
     <row r="41" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A41" s="14"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="50"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="44"/>
       <c r="AME41"/>
       <c r="AMF41"/>
       <c r="AMG41"/>
@@ -1710,19 +1685,19 @@
       <c r="AMI41"/>
     </row>
     <row r="42" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B42" s="20">
+      <c r="B42" s="23">
         <f>IF(B41="",B40+IF(OR(WEEKDAY(B40)=2,WEEKDAY(B40)=4),2,3),"")</f>
         <v>45338</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21">
+      <c r="C42" s="20"/>
+      <c r="D42" s="24">
         <v>18</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="44"/>
       <c r="AME42"/>
       <c r="AMF42"/>
       <c r="AMG42"/>
@@ -1731,12 +1706,12 @@
     </row>
     <row r="43" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A43" s="14"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="49"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="45"/>
       <c r="AME43"/>
       <c r="AMF43"/>
       <c r="AMG43"/>
@@ -1745,21 +1720,21 @@
     </row>
     <row r="44" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A44" s="14"/>
-      <c r="B44" s="23">
+      <c r="B44" s="19">
         <f>IF(B43="",B42+IF(OR(WEEKDAY(B42)=2,WEEKDAY(B42)=4),2,3),"")</f>
         <v>45341</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="20">
         <v>7</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="21">
         <v>19</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="32" t="s">
+      <c r="E44" s="22"/>
+      <c r="F44" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="36" t="s">
         <v>38</v>
       </c>
       <c r="AME44"/>
@@ -1769,12 +1744,12 @@
       <c r="AMI44"/>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="43"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="36"/>
       <c r="AME45"/>
       <c r="AMF45"/>
       <c r="AMG45"/>
@@ -1783,17 +1758,17 @@
     </row>
     <row r="46" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A46" s="14"/>
-      <c r="B46" s="20">
+      <c r="B46" s="23">
         <f>IF(B45="",B44+IF(OR(WEEKDAY(B44)=2,WEEKDAY(B44)=4),2,3),"")</f>
         <v>45343</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21">
+      <c r="C46" s="20"/>
+      <c r="D46" s="24">
         <v>20</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="43"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="36"/>
       <c r="AME46"/>
       <c r="AMF46"/>
       <c r="AMG46"/>
@@ -1802,12 +1777,12 @@
     </row>
     <row r="47" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A47" s="14"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="43"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="36"/>
       <c r="AME47"/>
       <c r="AMF47"/>
       <c r="AMG47"/>
@@ -1816,19 +1791,19 @@
     </row>
     <row r="48" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A48" s="14"/>
-      <c r="B48" s="20">
+      <c r="B48" s="23">
         <f>IF(B47="",B46+IF(OR(WEEKDAY(B46)=2,WEEKDAY(B46)=4),2,3),"")</f>
         <v>45345</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="21">
+      <c r="C48" s="20"/>
+      <c r="D48" s="24">
         <v>21</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="43"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="36"/>
       <c r="AME48"/>
       <c r="AMF48"/>
       <c r="AMG48"/>
@@ -1837,12 +1812,12 @@
     </row>
     <row r="49" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A49" s="14"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="36"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="40"/>
       <c r="AME49"/>
       <c r="AMF49"/>
       <c r="AMG49"/>
@@ -1851,21 +1826,21 @@
     </row>
     <row r="50" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50"/>
-      <c r="B50" s="23">
+      <c r="B50" s="19">
         <f>IF(B49="",B48+IF(OR(WEEKDAY(B48)=2,WEEKDAY(B48)=4),2,3),"")</f>
         <v>45348</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="20">
         <v>8</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="21">
         <v>22</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="22"/>
+      <c r="F50" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="36" t="s">
         <v>40</v>
       </c>
       <c r="AME50"/>
@@ -1876,12 +1851,12 @@
     </row>
     <row r="51" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A51" s="14"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="43"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="36"/>
       <c r="AME51"/>
       <c r="AMF51"/>
       <c r="AMG51"/>
@@ -1889,21 +1864,17 @@
       <c r="AMI51"/>
     </row>
     <row r="52" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="A52" s="17">
-        <f>DATE(B3,MONTH(1&amp;B4)+2,B5)</f>
-        <v>45359</v>
-      </c>
-      <c r="B52" s="20">
+      <c r="B52" s="23">
         <f>IF(B51="",B50+IF(OR(WEEKDAY(B50)=2,WEEKDAY(B50)=4),2,3),"")</f>
         <v>45350</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="21">
+      <c r="C52" s="20"/>
+      <c r="D52" s="24">
         <v>23</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="43"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="36"/>
       <c r="AME52"/>
       <c r="AMF52"/>
       <c r="AMG52"/>
@@ -1912,12 +1883,12 @@
     </row>
     <row r="53" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="14"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="43"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="36"/>
       <c r="AME53"/>
       <c r="AMF53"/>
       <c r="AMG53"/>
@@ -1925,20 +1896,23 @@
       <c r="AMI53"/>
     </row>
     <row r="54" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A54" s="14"/>
-      <c r="B54" s="20">
+      <c r="A54" s="17">
+        <f>DATE(B3,MONTH(1&amp;B4)+2,B5)</f>
+        <v>45359</v>
+      </c>
+      <c r="B54" s="23">
         <f>IF(B53="",B52+IF(OR(WEEKDAY(B52)=2,WEEKDAY(B52)=4),2,3),"")</f>
         <v>45352</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="28">
+      <c r="C54" s="20"/>
+      <c r="D54" s="41">
         <v>24</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="36"/>
       <c r="AME54"/>
       <c r="AMF54"/>
       <c r="AMG54"/>
@@ -1947,12 +1921,12 @@
     </row>
     <row r="55" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="A55" s="14"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="36"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="40"/>
       <c r="AME55"/>
       <c r="AMF55"/>
       <c r="AMG55"/>
@@ -1961,17 +1935,17 @@
     </row>
     <row r="56" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A56" s="14"/>
-      <c r="B56" s="23">
+      <c r="B56" s="19">
         <f>IF(B55="",B54+IF(OR(WEEKDAY(B54)=2,WEEKDAY(B54)=4),2,3),"")</f>
         <v>45355</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="36" t="s">
         <v>17</v>
       </c>
       <c r="AME56"/>
@@ -1981,12 +1955,12 @@
       <c r="AMI56"/>
     </row>
     <row r="57" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="36"/>
       <c r="AME57"/>
       <c r="AMF57"/>
       <c r="AMG57"/>
@@ -1994,15 +1968,15 @@
       <c r="AMI57"/>
     </row>
     <row r="58" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B58" s="20">
+      <c r="B58" s="23">
         <f>IF(B57="",B56+IF(OR(WEEKDAY(B56)=2,WEEKDAY(B56)=4),2,3),"")</f>
         <v>45357</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="43"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="36"/>
       <c r="AME58"/>
       <c r="AMF58"/>
       <c r="AMG58"/>
@@ -2010,12 +1984,12 @@
       <c r="AMI58"/>
     </row>
     <row r="59" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B59" s="20"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="43"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="36"/>
       <c r="AME59"/>
       <c r="AMF59"/>
       <c r="AMG59"/>
@@ -2023,15 +1997,15 @@
       <c r="AMI59"/>
     </row>
     <row r="60" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B60" s="20">
+      <c r="B60" s="23">
         <f>IF(B59="",B58+IF(OR(WEEKDAY(B58)=2,WEEKDAY(B58)=4),2,3),"")</f>
         <v>45359</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="43"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="36"/>
       <c r="AME60"/>
       <c r="AMF60"/>
       <c r="AMG60"/>
@@ -2039,12 +2013,12 @@
       <c r="AMI60"/>
     </row>
     <row r="61" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B61" s="20"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="43"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="36"/>
       <c r="AME61"/>
       <c r="AMF61"/>
       <c r="AMG61"/>
@@ -2052,21 +2026,21 @@
       <c r="AMI61"/>
     </row>
     <row r="62" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B62" s="23">
+      <c r="B62" s="19">
         <f>IF(B61="",B60+IF(OR(WEEKDAY(B60)=2,WEEKDAY(B60)=4),2,3),"")</f>
         <v>45362</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="20">
         <v>9</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="21">
         <v>25</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="32" t="s">
+      <c r="E62" s="22"/>
+      <c r="F62" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="36" t="s">
         <v>41</v>
       </c>
       <c r="AME62"/>
@@ -2076,12 +2050,12 @@
       <c r="AMI62"/>
     </row>
     <row r="63" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="43"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="36"/>
       <c r="AME63"/>
       <c r="AMF63"/>
       <c r="AMG63"/>
@@ -2089,17 +2063,17 @@
       <c r="AMI63"/>
     </row>
     <row r="64" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B64" s="20">
+      <c r="B64" s="23">
         <f>IF(B63="",B62+IF(OR(WEEKDAY(B62)=2,WEEKDAY(B62)=4),2,3),"")</f>
         <v>45364</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="21">
+      <c r="C64" s="20"/>
+      <c r="D64" s="24">
         <v>26</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="43"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="36"/>
       <c r="AME64"/>
       <c r="AMF64"/>
       <c r="AMG64"/>
@@ -2107,12 +2081,12 @@
       <c r="AMI64"/>
     </row>
     <row r="65" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B65" s="20"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="43"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="36"/>
       <c r="AME65"/>
       <c r="AMF65"/>
       <c r="AMG65"/>
@@ -2121,19 +2095,19 @@
     </row>
     <row r="66" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A66"/>
-      <c r="B66" s="20">
+      <c r="B66" s="23">
         <f>IF(B65="",B64+IF(OR(WEEKDAY(B64)=2,WEEKDAY(B64)=4),2,3),"")</f>
         <v>45366</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="21">
+      <c r="C66" s="20"/>
+      <c r="D66" s="24">
         <v>27</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="43"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="36"/>
       <c r="AME66"/>
       <c r="AMF66"/>
       <c r="AMG66"/>
@@ -2141,12 +2115,12 @@
       <c r="AMI66"/>
     </row>
     <row r="67" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B67" s="20"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="36"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="40"/>
       <c r="AME67"/>
       <c r="AMF67"/>
       <c r="AMG67"/>
@@ -2154,21 +2128,21 @@
       <c r="AMI67"/>
     </row>
     <row r="68" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B68" s="23">
+      <c r="B68" s="19">
         <f>IF(B67="",B66+IF(OR(WEEKDAY(B66)=2,WEEKDAY(B66)=4),2,3),"")</f>
         <v>45369</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="20">
         <v>10</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="21">
         <v>28</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="33" t="s">
+      <c r="E68" s="22"/>
+      <c r="F68" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="36" t="s">
         <v>42</v>
       </c>
       <c r="AME68"/>
@@ -2178,12 +2152,12 @@
       <c r="AMI68"/>
     </row>
     <row r="69" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="43"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="36"/>
       <c r="AME69"/>
       <c r="AMF69"/>
       <c r="AMG69"/>
@@ -2191,17 +2165,17 @@
       <c r="AMI69"/>
     </row>
     <row r="70" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B70" s="20">
+      <c r="B70" s="23">
         <f>IF(B69="",B68+IF(OR(WEEKDAY(B68)=2,WEEKDAY(B68)=4),2,3),"")</f>
         <v>45371</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="21">
+      <c r="C70" s="20"/>
+      <c r="D70" s="24">
         <v>29</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="43"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="36"/>
       <c r="AME70"/>
       <c r="AMF70"/>
       <c r="AMG70"/>
@@ -2209,12 +2183,12 @@
       <c r="AMI70"/>
     </row>
     <row r="71" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B71" s="20"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="43"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="36"/>
       <c r="AME71"/>
       <c r="AMF71"/>
       <c r="AMG71"/>
@@ -2222,19 +2196,19 @@
       <c r="AMI71"/>
     </row>
     <row r="72" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B72" s="20">
+      <c r="B72" s="23">
         <f>IF(B71="",B70+IF(OR(WEEKDAY(B70)=2,WEEKDAY(B70)=4),2,3),"")</f>
         <v>45373</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="21">
+      <c r="C72" s="20"/>
+      <c r="D72" s="24">
         <v>30</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="43"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="36"/>
       <c r="AME72"/>
       <c r="AMF72"/>
       <c r="AMG72"/>
@@ -2242,12 +2216,12 @@
       <c r="AMI72"/>
     </row>
     <row r="73" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B73" s="20"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="36"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
       <c r="AME73"/>
       <c r="AMF73"/>
       <c r="AMG73"/>
@@ -2255,21 +2229,21 @@
       <c r="AMI73"/>
     </row>
     <row r="74" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B74" s="23">
+      <c r="B74" s="19">
         <f>IF(B73="",B72+IF(OR(WEEKDAY(B72)=2,WEEKDAY(B72)=4),2,3),"")</f>
         <v>45376</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="20">
         <v>11</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="21">
         <v>31</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="33" t="s">
+      <c r="E74" s="22"/>
+      <c r="F74" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="36" t="s">
         <v>43</v>
       </c>
       <c r="AME74"/>
@@ -2279,12 +2253,12 @@
       <c r="AMI74"/>
     </row>
     <row r="75" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="43"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="36"/>
       <c r="AME75"/>
       <c r="AMF75"/>
       <c r="AMG75"/>
@@ -2292,17 +2266,17 @@
       <c r="AMI75"/>
     </row>
     <row r="76" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B76" s="20">
+      <c r="B76" s="23">
         <f>IF(B75="",B74+IF(OR(WEEKDAY(B74)=2,WEEKDAY(B74)=4),2,3),"")</f>
         <v>45378</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="21">
+      <c r="C76" s="20"/>
+      <c r="D76" s="24">
         <v>32</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="43"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="36"/>
       <c r="AME76"/>
       <c r="AMF76"/>
       <c r="AMG76"/>
@@ -2310,12 +2284,12 @@
       <c r="AMI76"/>
     </row>
     <row r="77" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B77" s="20"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="43"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="36"/>
       <c r="AME77"/>
       <c r="AMF77"/>
       <c r="AMG77"/>
@@ -2324,19 +2298,19 @@
     </row>
     <row r="78" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78"/>
-      <c r="B78" s="20">
+      <c r="B78" s="23">
         <f>IF(B77="",B76+IF(OR(WEEKDAY(B76)=2,WEEKDAY(B76)=4),2,3),"")</f>
         <v>45380</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="21">
+      <c r="C78" s="20"/>
+      <c r="D78" s="24">
         <v>33</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="39"/>
-      <c r="G78" s="43"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="36"/>
       <c r="AME78"/>
       <c r="AMF78"/>
       <c r="AMG78"/>
@@ -2344,12 +2318,12 @@
       <c r="AMI78"/>
     </row>
     <row r="79" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B79" s="20"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="36"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="40"/>
       <c r="AME79"/>
       <c r="AMF79"/>
       <c r="AMG79"/>
@@ -2361,21 +2335,23 @@
         <f>DATE(B3,MONTH(1&amp;B4)+3,B5)</f>
         <v>45390</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="19">
         <f>IF(B79="",B78+IF(OR(WEEKDAY(B78)=2,WEEKDAY(B78)=4),2,3),"")</f>
         <v>45383</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="20">
         <v>12</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="21">
         <v>34</v>
       </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="33" t="s">
+      <c r="E80" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="36" t="s">
         <v>44</v>
       </c>
       <c r="AME80"/>
@@ -2385,12 +2361,12 @@
       <c r="AMI80"/>
     </row>
     <row r="81" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="43"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="36"/>
       <c r="AME81"/>
       <c r="AMF81"/>
       <c r="AMG81"/>
@@ -2398,17 +2374,17 @@
       <c r="AMI81"/>
     </row>
     <row r="82" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B82" s="20">
+      <c r="B82" s="23">
         <f>IF(B81="",B80+IF(OR(WEEKDAY(B80)=2,WEEKDAY(B80)=4),2,3),"")</f>
         <v>45385</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="21">
+      <c r="C82" s="20"/>
+      <c r="D82" s="24">
         <v>35</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="43"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="36"/>
       <c r="AME82"/>
       <c r="AMF82"/>
       <c r="AMG82"/>
@@ -2416,12 +2392,12 @@
       <c r="AMI82"/>
     </row>
     <row r="83" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B83" s="20"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="43"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="36"/>
       <c r="AME83"/>
       <c r="AMF83"/>
       <c r="AMG83"/>
@@ -2429,19 +2405,19 @@
       <c r="AMI83"/>
     </row>
     <row r="84" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B84" s="20">
+      <c r="B84" s="23">
         <f>IF(B83="",B82+IF(OR(WEEKDAY(B82)=2,WEEKDAY(B82)=4),2,3),"")</f>
         <v>45387</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="21">
+      <c r="C84" s="20"/>
+      <c r="D84" s="24">
         <v>36</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="43"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="36"/>
       <c r="AME84"/>
       <c r="AMF84"/>
       <c r="AMG84"/>
@@ -2449,12 +2425,12 @@
       <c r="AMI84"/>
     </row>
     <row r="85" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B85" s="20"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="36"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40"/>
       <c r="AME85"/>
       <c r="AMF85"/>
       <c r="AMG85"/>
@@ -2462,23 +2438,21 @@
       <c r="AMI85"/>
     </row>
     <row r="86" spans="1:1023" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B86" s="23">
+      <c r="B86" s="19">
         <f>IF(B85="",B84+IF(OR(WEEKDAY(B84)=2,WEEKDAY(B84)=4),2,3),"")</f>
         <v>45390</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="20">
         <v>13</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="21">
         <v>37</v>
       </c>
-      <c r="E86" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="33" t="s">
+      <c r="E86" s="22"/>
+      <c r="F86" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="43" t="s">
+      <c r="G86" s="36" t="s">
         <v>45</v>
       </c>
       <c r="AME86"/>
@@ -2488,12 +2462,12 @@
       <c r="AMI86"/>
     </row>
     <row r="87" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="44"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="37"/>
       <c r="AME87"/>
       <c r="AMF87"/>
       <c r="AMG87"/>
@@ -2501,17 +2475,17 @@
       <c r="AMI87"/>
     </row>
     <row r="88" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B88" s="20">
+      <c r="B88" s="23">
         <f>IF(B87="",B86+IF(OR(WEEKDAY(B86)=2,WEEKDAY(B86)=4),2,3),"")</f>
         <v>45392</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="21">
+      <c r="C88" s="20"/>
+      <c r="D88" s="24">
         <v>38</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="44"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="37"/>
       <c r="AME88"/>
       <c r="AMF88"/>
       <c r="AMG88"/>
@@ -2519,12 +2493,12 @@
       <c r="AMI88"/>
     </row>
     <row r="89" spans="1:1023" ht="15.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B89" s="20"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="44"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="37"/>
       <c r="AME89"/>
       <c r="AMF89"/>
       <c r="AMG89"/>
@@ -2532,19 +2506,19 @@
       <c r="AMI89"/>
     </row>
     <row r="90" spans="1:1023" ht="15.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B90" s="20">
+      <c r="B90" s="23">
         <f>IF(B89="",B88+IF(OR(WEEKDAY(B88)=2,WEEKDAY(B88)=4),2,3),"")</f>
         <v>45394</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="21">
+      <c r="C90" s="20"/>
+      <c r="D90" s="24">
         <v>39</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="39"/>
-      <c r="G90" s="44"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="37"/>
       <c r="AME90"/>
       <c r="AMF90"/>
       <c r="AMG90"/>
@@ -2552,12 +2526,12 @@
       <c r="AMI90"/>
     </row>
     <row r="91" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B91" s="20"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="45"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="38"/>
       <c r="AME91"/>
       <c r="AMF91"/>
       <c r="AMG91"/>
@@ -2570,17 +2544,17 @@
         <f>IF(B91="",B90+IF(OR(WEEKDAY(B90)=2,WEEKDAY(B90)=4),2,3),"")</f>
         <v>45397</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="20">
         <v>14</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="21">
         <v>40</v>
       </c>
-      <c r="E92" s="26"/>
-      <c r="F92" s="32" t="s">
+      <c r="E92" s="22"/>
+      <c r="F92" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G92" s="51" t="s">
+      <c r="G92" s="32" t="s">
         <v>12</v>
       </c>
       <c r="AME92"/>
@@ -2591,11 +2565,11 @@
     </row>
     <row r="93" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="B93" s="1"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="51"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="32"/>
       <c r="AME93"/>
       <c r="AMF93"/>
       <c r="AMG93"/>
@@ -2607,13 +2581,13 @@
         <f>IF(B93="",B92+IF(OR(WEEKDAY(B92)=2,WEEKDAY(B92)=4),2,3),"")</f>
         <v>45399</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="21">
+      <c r="C94" s="20"/>
+      <c r="D94" s="24">
         <v>41</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="51"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="32"/>
       <c r="AME94"/>
       <c r="AMF94"/>
       <c r="AMG94"/>
@@ -2622,11 +2596,11 @@
     </row>
     <row r="95" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B95" s="1"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="51"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="32"/>
       <c r="AME95"/>
       <c r="AMF95"/>
       <c r="AMG95"/>
@@ -2638,15 +2612,15 @@
         <f>IF(B95="",B94+IF(OR(WEEKDAY(B94)=2,WEEKDAY(B94)=4),2,3),"")</f>
         <v>45401</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="21">
+      <c r="C96" s="20"/>
+      <c r="D96" s="24">
         <v>42</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="32"/>
-      <c r="G96" s="51"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
       <c r="AME96"/>
       <c r="AMF96"/>
       <c r="AMG96"/>
@@ -2655,11 +2629,11 @@
     </row>
     <row r="97" spans="1:1023" x14ac:dyDescent="0.75">
       <c r="B97" s="18"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="51"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
       <c r="AME97"/>
       <c r="AMF97"/>
       <c r="AMG97"/>
@@ -2667,21 +2641,21 @@
       <c r="AMI97"/>
     </row>
     <row r="98" spans="1:1023" ht="13.8" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B98" s="23">
+      <c r="B98" s="19">
         <f>IF(B97="",B96+IF(OR(WEEKDAY(B96)=2,WEEKDAY(B96)=4),2,3),"")</f>
         <v>45404</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="20">
         <v>15</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="21">
         <v>43</v>
       </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="33" t="s">
+      <c r="E98" s="27"/>
+      <c r="F98" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="19"/>
+      <c r="G98" s="25"/>
       <c r="AME98"/>
       <c r="AMF98"/>
       <c r="AMG98"/>
@@ -2689,12 +2663,12 @@
       <c r="AMI98"/>
     </row>
     <row r="99" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="25"/>
       <c r="AME99"/>
       <c r="AMF99"/>
       <c r="AMG99"/>
@@ -2702,17 +2676,17 @@
       <c r="AMI99"/>
     </row>
     <row r="100" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B100" s="20">
+      <c r="B100" s="23">
         <f>IF(B99="",B98+IF(OR(WEEKDAY(B98)=2,WEEKDAY(B98)=4),2,3),"")</f>
         <v>45406</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="21">
+      <c r="C100" s="20"/>
+      <c r="D100" s="24">
         <v>44</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="19"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="25"/>
       <c r="AME100"/>
       <c r="AMF100"/>
       <c r="AMG100"/>
@@ -2720,12 +2694,12 @@
       <c r="AMI100"/>
     </row>
     <row r="101" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B101" s="20"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="19"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="25"/>
       <c r="AME101"/>
       <c r="AMF101"/>
       <c r="AMG101"/>
@@ -2733,17 +2707,17 @@
       <c r="AMI101"/>
     </row>
     <row r="102" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B102" s="20">
+      <c r="B102" s="23">
         <f>IF(B101="",B100+IF(OR(WEEKDAY(B100)=2,WEEKDAY(B100)=4),2,3),"")</f>
         <v>45408</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="21">
+      <c r="C102" s="20"/>
+      <c r="D102" s="24">
         <v>45</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="19"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="25"/>
       <c r="AME102"/>
       <c r="AMF102"/>
       <c r="AMG102"/>
@@ -2751,12 +2725,12 @@
       <c r="AMI102"/>
     </row>
     <row r="103" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B103" s="20"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="19"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="25"/>
       <c r="AME103"/>
       <c r="AMF103"/>
       <c r="AMG103"/>
@@ -2764,21 +2738,17 @@
       <c r="AMI103"/>
     </row>
     <row r="104" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="A104" s="17">
-        <f>DATE(B3,MONTH(1&amp;B4)+4,B5)</f>
-        <v>45420</v>
-      </c>
-      <c r="B104" s="23">
+      <c r="B104" s="19">
         <f>IF(B103="",B102+IF(OR(WEEKDAY(B102)=2,WEEKDAY(B102)=4),2,3),"")</f>
         <v>45411</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="20">
         <v>16</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="21">
         <v>46</v>
       </c>
-      <c r="F104" s="26"/>
+      <c r="F104" s="22"/>
       <c r="AME104"/>
       <c r="AMF104"/>
       <c r="AMG104"/>
@@ -2786,10 +2756,10 @@
       <c r="AMI104"/>
     </row>
     <row r="105" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="F105" s="26"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="F105" s="22"/>
       <c r="AME105"/>
       <c r="AMF105"/>
       <c r="AMG105"/>
@@ -2797,15 +2767,19 @@
       <c r="AMI105"/>
     </row>
     <row r="106" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B106" s="20">
+      <c r="A106" s="17">
+        <f>DATE(B3,MONTH(1&amp;B4)+4,B5)</f>
+        <v>45420</v>
+      </c>
+      <c r="B106" s="23">
         <f>IF(B105="",B104+IF(OR(WEEKDAY(B104)=2,WEEKDAY(B104)=4),2,3),"")</f>
         <v>45413</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="21">
+      <c r="C106" s="20"/>
+      <c r="D106" s="24">
         <v>47</v>
       </c>
-      <c r="F106" s="26"/>
+      <c r="F106" s="22"/>
       <c r="AME106"/>
       <c r="AMF106"/>
       <c r="AMG106"/>
@@ -2813,10 +2787,10 @@
       <c r="AMI106"/>
     </row>
     <row r="107" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B107" s="20"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="21"/>
-      <c r="F107" s="26"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="24"/>
+      <c r="F107" s="22"/>
       <c r="AME107"/>
       <c r="AMF107"/>
       <c r="AMG107"/>
@@ -2824,15 +2798,15 @@
       <c r="AMI107"/>
     </row>
     <row r="108" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B108" s="20">
+      <c r="B108" s="23">
         <f>IF(B107="",B106+IF(OR(WEEKDAY(B106)=2,WEEKDAY(B106)=4),2,3),"")</f>
         <v>45415</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="21">
+      <c r="C108" s="20"/>
+      <c r="D108" s="24">
         <v>48</v>
       </c>
-      <c r="F108" s="26"/>
+      <c r="F108" s="22"/>
       <c r="AME108"/>
       <c r="AMF108"/>
       <c r="AMG108"/>
@@ -2840,10 +2814,10 @@
       <c r="AMI108"/>
     </row>
     <row r="109" spans="1:1023" x14ac:dyDescent="0.75">
-      <c r="B109" s="20"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="F109" s="26"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="F109" s="22"/>
       <c r="AME109"/>
       <c r="AMF109"/>
       <c r="AMG109"/>
@@ -2852,6 +2826,185 @@
     </row>
   </sheetData>
   <mergeCells count="199">
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="G68:G73"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C92:C97"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F97"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C109"/>
     <mergeCell ref="D104:D105"/>
@@ -2872,203 +3025,29 @@
     <mergeCell ref="D98:D99"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="F98:F103"/>
-    <mergeCell ref="C92:C97"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F97"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F80:F85"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F74:F79"/>
-    <mergeCell ref="G68:G73"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F68:F73"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:C8 E8 C14 E14 C20 E20 C26 E26 A28 C32 E32 C38 E38 C44 E44 C50 E50 C56 E56 C62 E62 C68 E68 C74 E74 C80 E80 C86 E86 C92 E92 C98">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A8:C8 E8 C14 E14 C20 E20 C26 E26 A30 C32 E32 C38 E38 C44 E44 C50 E50 C56 E56 C62 E62 C68 E68 C74 E74 C80 C86 E80 C92 E92 C98">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>"not(isblank(address(row(),c)))"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98 E102 C104 C108">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>"not(isblank(address(row(),c)))"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 F14 F20 F26 F32 F38 F50 F62 F68 F74 F80 F86">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>"not(isblank(address(row(),c)))"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98 F102">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>"not(isblank(address(row(),c)))"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"not(isblank(address(row(),c)))"</formula>
     </cfRule>
   </conditionalFormatting>
